--- a/5. Wiki/encyclopedia.xlsx
+++ b/5. Wiki/encyclopedia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e187b20a541708e/Desktop/Brecht/Learning-Material/5. Wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="11_F25DC773A252ABDACC10488EF19E69745ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01890F25-9465-4A84-9451-852AE7A20E57}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="11_F25DC773A252ABDACC10488EF19E69745ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{590CF953-C020-44D5-9185-B9777EF9634C}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="198">
   <si>
     <t>Input</t>
   </si>
@@ -43,39 +43,7 @@
     <t>Structure</t>
   </si>
   <si>
-    <r>
-      <t>Enter your name: &lt;input type="text" id="fname" onchange="</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>myFunction()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Functions</t>
-  </si>
-  <si>
-    <t>function myFunction() {
-            var x = document.getElementById("fname");
-            x.value = x.value.toUpperCase();
-        }</t>
   </si>
   <si>
     <t>Uses input from HTML with ID = "fname", and changes to Upper Case Letters</t>
@@ -1886,12 +1854,2628 @@
     <t>Start new line</t>
   </si>
   <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Add CSS reference</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="mystyles.css"&gt;</t>
+  </si>
+  <si>
+    <t>Needs to be added in Head section</t>
+  </si>
+  <si>
+    <t>Change lay-out of browser</t>
+  </si>
+  <si>
+    <t>Change formatting of text</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+     font-family: Georgia;
+     color: rgb(155, 0, 255);
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H1, H2, H3, H4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+     font-family: Georgia;
+     color: rgb(155, 0, 255);
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>- Can also be used on specific selectors</t>
+  </si>
+  <si>
+    <t>- Combine multiple selectors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.blueboldtext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{
+     font-size: small;
+     color: blue;
+     font-weight: bold;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class="blueboldtext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;This is one paragraph&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Incorporate class</t>
+  </si>
+  <si>
+    <t>Incorporate class only on subset of text</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;p&gt;This is one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;span class="blueboldtext&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> paragraph </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Add mulltiple classes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;p&gt;This is one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;span class="blueboldtext class="greenboldtext"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> paragraph </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#div1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+    width: 50px;
+    height: 50px;
+    background-color:yellow;
+    display: inline-block;	
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;div id="div1"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is a line of text &lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- For Classes, you need to start with a dot
+- Class can be used repediately in the HTML code
+- In HTML, you simply need to call the class</t>
+  </si>
+  <si>
+    <t>- This is DIV with ID = div1
+- You can only use the ID once
+- Needs to start with #</t>
+  </si>
+  <si>
+    <t>Incorporate DIV</t>
+  </si>
+  <si>
+    <t>Add class to DIV</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;div id="div1" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class="blueboldtext"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; This is a line of text &lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Add Margin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#div1 {
+    width: 50px;
+    height: 50px;
+    background-color:yellow;
+    display: inline-block;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">margin: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin-top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin-buttom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>margin-left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10px;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> margin-right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 10px;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Add Padding</t>
+  </si>
+  <si>
+    <t>- Padding adds space around the content</t>
+  </si>
+  <si>
+    <t>- Margin add space around the div</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#div1 {
+    width: 50px;
+    height: 50px;
+    background-color:yellow;
+    display: inline-block;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">padding: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padding-top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padding-buttom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>padding-left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10px;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> padding-right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 10px;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>- Selector = Body
+- Property = Background
+- Value = Pink
+- font-family, you can specificy multiple if the browser wouldn't support the first one</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Body{
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: rgb(155, 0, 255);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: blue;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-family</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Ariel, verdana;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: small;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: oblique;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: italic;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>font-weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: bold;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>line-heigh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t: 200%;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>align-content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: center;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: center;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>letter-spacing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: normal;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>word-spacing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: normal;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-decoration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: underline;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-decoration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: overline;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-decoration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: line-through;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: capitalize;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: lowercase;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>text-transform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: uppercase;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Add Border</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#div1 {
+    width: 50px;
+    height: 50px;
+    background-color:yellow;
+    display: inline-block;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">border: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border-top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border-buttom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border-left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 10px;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> border-right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 10px;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Add Background</t>
+  </si>
+  <si>
+    <t>- Background repeat is to repeat the same picture until the entire area is covered. 
+- X = via x-axis
+- Y = via y-axis
+- no-repeat = not repeading pic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#div2 {
+    width: 100px;
+    height: 100px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background-image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:url(../Images/FL.jpg);
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background-repeat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: repeat-x;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background-repeat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: repeat-y;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background-repeat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: no-repeat;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background-position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: center;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Include image</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">img{
+    opacity: 0.4;
+}
+img:hover{
+    opacity: 1;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+div&gt;
+    &lt;img src="../Images/txtbg.jpg" width="200" height="200"&gt;
+&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- Opacity makes the picture more transparent
+- img: hover: changes the transparency when hovering over the picture with your mouse</t>
+  </si>
+  <si>
+    <t>Add nested div</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CSS: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#background</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+    background-image: url(../Images/txtbg.jpg);
+    padding: 40px;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#textbox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+    width:auto;
+    height:100px;
+    opacity: 0.8;
+    background-color: #000000;
+    padding:10px;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+    color: white;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id="background"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+    &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id="textbox"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+        &lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class="text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;
+            Title
+        &lt;/div&gt;
+    &lt;/div&gt;
+&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Sizing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#div1 {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 100%;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 600px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 800px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 100vh;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min-height</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 50px;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>- Can also be set at auto, so it will be sized to the space it has available
+- for Height, 100% doesn't work you need to use 100vh instead</t>
+  </si>
+  <si>
+    <t>- inline-block: means that they will be shown next to each other
+- none: means the block will not be shown
+- removing display: means they will be shown underneath each other</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+#div1 {
+    width: 50px;
+    height: 50px;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: inline-block;	
+}
+#div2 {
+    width: 50px;
+    height: 50px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: inline-block;	
+}
+#div3 {
+    width: 50px;
+    height: 50px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> none;	
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Display </t>
+  </si>
+  <si>
+    <t>Positioning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#div1 {
+    width: 50px;
+    height: 50px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>position:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relative;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> top:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 50px;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> left:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 50px;	
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>- Put position on Relative, and can move 50px away from top and left corner of the page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#div1 {
+    width: 50px;
+    height: 50px;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>position:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fixed;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    top:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 50px;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> left: 50px;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">	
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>- By changing the position to fixed, the container stays on the same place on the page, even if you scroll down</t>
+  </si>
+  <si>
+    <t>Add Float property</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+img{
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: right;
+    margin: 0.1px;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;img src="../Images/txtbg.jpg" width="200" height="200"&gt;
+&lt;--&gt; Add large amount of text &lt;--&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- This will wrap the text around the image</t>
+  </si>
+  <si>
+    <t>Add Z-index</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+#div1 {
+    width: 50px;
+    height: 50px;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> z-index: 1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">	
+}
+#div2 {
+    width: 50px;
+    height: 50px;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> z-index: 2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">	
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>- Z-index: will ensure that both Divs are on top of each other. With 1 on the buttom and 2 on top</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Style Links</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a:link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+     color: red;
+     text-decoration: none;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a:visited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+     color: blue;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a:hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+     color: purple;
+     text-decoration: underline;
+     background-color: yellow;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a:active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+     color: blue;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>- Style the links on your page
+- Link = not yet clicked
+- Visited = link you have already clicked on
+- hover = link your mouse is hovering over
+- active = the exact moment you click on it</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Format tables</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;table width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="100%" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bgcolor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="#f0f0f0f0" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="1px" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bordercolor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="blue" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cellspacing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="2px" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cellpadding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="2px"&gt;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;tr&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;th&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> column 1 Header </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/th&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;td&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">row 1 column 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/td&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+          &lt;td&gt; row 1 column 2 &lt;/td&gt;
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/tr&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     &lt;tr&gt; 
+          &lt;td&gt; row 2 column 1 &lt;/td&gt;
+          &lt;td&gt; row 2 column 2 &lt;/td&gt;
+     &lt;/tr&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/table&gt;</t>
+    </r>
+  </si>
+  <si>
     <t>-bgcolor = Background color 
 - border = border tickness
 - bordercolor = border color
 - cellspacing = room between cells
 - cell padding = room around the text
 - tr = row
+- th = Table header
 - td = column</t>
   </si>
   <si>
@@ -1904,177 +4488,88 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;table width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">="100%" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bgcolor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">="#f0f0f0f0" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>border</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">="1px" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bordercolor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">="blue" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cellspacing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">="2px" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cellpadding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">="2px"&gt;
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  &lt;tr&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;td&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">row 1 column 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/td&gt;</t>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{
+    border-collapse: collapse;
+    width: 100%;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>th, td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+    padding: 15px;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr:hover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+    background-color: cyan;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>Create Menu Option</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS:</t>
     </r>
     <r>
       <rPr>
@@ -2085,7 +4580,822 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-          &lt;td&gt; row 1 column 2 &lt;/td&gt;
+#header {
+     background: black;
+     font-family: Arial; 
+     height: 100px;
+}
+ul {
+     list-style-type: none;
+     margin: 0;
+     padding: 0;
+     background-color: #000;
+}
+li {
+     float: left;
+     border-right:1px solid #bbb;
+}
+li:last-child {
+     border-right: none;
+}
+li a {
+     display: block;
+     color: white;
+     text-align: center;
+     padding: 14px 16px;
+     text-decoration: none;
+}
+li a:hover:not(.active) {
+     background-color: 	#808080;
+}
+.active {
+     background-color: #0099ff;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HTML:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div id="header"&gt;
+     &lt;ul style="display: inline;"&gt;
+          &lt;li&gt;&lt;a class="active" href="#home"&gt;Home&lt;/a&gt;&lt;/li&gt;
+          &lt;li&gt;&lt;a href="#news"&gt;About&lt;/a&gt;&lt;/li&gt;
+          &lt;li&gt;&lt;a href="#contact"&gt;News&lt;/a&gt;&lt;/li&gt;
+           &lt;li&gt;&lt;a href="#about"&gt;Contact&lt;/a&gt;&lt;/li&gt;		  
+     &lt;/ul&gt;
+&lt;/div&gt;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>- Li: Last-child: to create a different format for last item</t>
+  </si>
+  <si>
+    <t>Add Footer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#footer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+     clear: left; /* Cannot float on Left */
+     width: 100%;
+     background: black;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Make page responsive</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>media (max-width: 840px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>){ 
+     #leftcolumn {
+          margin-left: -100%;
+     }
+     #rightcolumn {
+          float: none;
+          width: 100%;
+          margin-left: 0;
+          clear: both;
+     }
+     #contentcolumn {
+           margin-right: 0;			
+     }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>- Clear: how the element behaves compared to others:
+# none: The default value. The element is not moved down below any floating elements.
+# left: The element is moved down below any elements that are positioned to the left.
+# right: The element is moved down below any elements that are positioned to the right.
+# both: The element is moved down below any floating elements</t>
+  </si>
+  <si>
+    <t>- Adjust layout based on width of screen
+- margin-left: 100%, is to ensure it is at the most left side of the container
+- float: 
+# none: The default value. Other elements are not wrapped around it.
+# left: The element is floated to the left, and other elements are wrapped around it on its right side.
+# right: The element is floated to the right, and other elements are wrapped around it on its left side.
+# inherit: The element inherits the float property from its parent element.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform letters in uppercase </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter your name: &lt;input type="text" id="fname" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onchange</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myFunction()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Add JavaScript</t>
+  </si>
+  <si>
+    <t>&lt;script type="text/javascript" src="../static/js/jquery.js" defer=""&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Retrieve input, show output</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myFunction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>() {
+            var x = document.getElementById("fname");
+            x.value = x.value.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toUpperCase()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+        }</t>
+    </r>
+  </si>
+  <si>
+    <t>Show Window Alert</t>
+  </si>
+  <si>
+    <t>- Window Alert is a pop-up message</t>
+  </si>
+  <si>
+    <t>window.alert(msg)</t>
+  </si>
+  <si>
+    <t>Show JS output in HTML</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+document.getElementById("</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">").innerHTML = "text";
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;p id="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- Please note, you will need to add the source code in the body text of HTML</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+function </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cyear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s (form){
+	form.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dogage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.value = form.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.value * 7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;table&gt;
+      &lt;tr&gt;
+          &lt;td&gt;Enter your age:&lt;/td&gt;
+          &lt;td&gt;&lt;input type="text" name="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">e" size=15&gt;&lt;/td&gt;
+     &lt;/tr&gt;
+     &lt;tr&gt;
+          &lt;td&gt;
+               &lt;input type="button" value="Calculate" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onclick="cyears(this.form)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;   
+          &lt;/td&gt;
+     &lt;/tr&gt;
+     &lt;tr&gt;
+          &lt;td&gt;Your age in Dog Years is:&lt;/td&gt;
+          &lt;td&gt;&lt;input type="text" name="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dogage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" size=15&gt;&lt;/td&gt;
+     &lt;/tr&gt;
+&lt;/table&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Conditionals</t>
+  </si>
+  <si>
+    <t>IF Statement</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>- ==: is equal
+- !=: is not equal
+- The output will be TRUE or FALSE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+var score = 65
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(score &lt; 50){
+     document.write("F");
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(score &lt; 70){
+     document.write("D")
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(score &lt;= 100){
+     document.write("A")
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+     document.write("Score must be less than 100")
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var x = 6;
+document.getElementById("score").innerHTML = (x </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 6);</t>
+    </r>
+  </si>
+  <si>
+    <t>- Loops through a list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var count;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for(count = 0; count &lt;= 10; count++)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+     document.write( count );
+     document.write("&lt;br&gt;");
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var person = ("Brecht", "Ines", "Bobby");
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for(x in person)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+     document.write( x );
+     document.write("&lt;br&gt;");
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>For loops</t>
+  </si>
+  <si>
+    <t>While Loops</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var i = 0;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while(i &lt; 20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{
+     document.write( i );
+     document.write("&lt;br&gt;");
      </t>
     </r>
     <r>
@@ -2097,41 +5407,172 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;/tr&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     &lt;tr&gt; 
-          &lt;td&gt; row 2 column 1 &lt;/td&gt;
-          &lt;td&gt; row 2 column 2 &lt;/td&gt;
-     &lt;/tr&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/table&gt;</t>
-    </r>
+      <t>i++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Multiply</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function myFunction(a, b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+     return a * b;
+}
+document.getElementById("math").innerHTML = myFunction(6, 2);</t>
+    </r>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onclick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myFunction()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt; Submit &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onmouseover</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myFunction()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt; Submit &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>- Will trigger the function, when mouse goes over the button</t>
+  </si>
+  <si>
+    <t>Preview images, based on hovering over pictures</t>
+  </si>
+  <si>
+    <t>&lt;div id="container" align="center"&gt;
+     &lt;h1&gt;My Web Page Gallery&lt;/h1&gt;
+     &lt;br /&gt;
+     &lt;div class="thumbnails"&gt; 
+          &lt;img onmouseover="preview.src=img1.src" name="img1" src="images/img1.jpg" /&gt;
+          &lt;img onmouseover="preview.src=img2.src" name="img2" src="images/img2.jpg" /&gt;
+     &lt;/div&gt; 
+     &lt;br/&gt;
+     &lt;div class="preview" align="center"&gt;
+          &lt;img name="preview" src="images/img1.jpg" /&gt;
+     &lt;/div&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,6 +5598,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2228,6 +5678,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38661</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>237971</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A37D36-0A67-B4F1-7C1F-8351C072915B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9496426" y="8994403"/>
+          <a:ext cx="3704104" cy="2292568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2493,11 +5996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E61"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,7 +6017,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -2534,13 +6037,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2548,13 +6051,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2562,13 +6065,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -2576,10 +6079,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2588,13 +6091,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="75" x14ac:dyDescent="0.25">
@@ -2602,13 +6105,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
@@ -2616,13 +6119,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="135" x14ac:dyDescent="0.25">
@@ -2630,328 +6133,340 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="345" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="150" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="345" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>78</v>
+        <v>88</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
@@ -2965,19 +6480,11 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -3068,30 +6575,6 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3100,320 +6583,735 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7ADCE-6B43-47A4-8B06-C6416141233E}">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0033557-3140-4C45-851E-DAB4EA5C1402}">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:E28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="315" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3422,156 +7320,184 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFE8024-1D1A-4695-8C58-85D0433A4BB3}">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="2" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
